--- a/Outputs/PtX_demand_BG.xlsx
+++ b/Outputs/PtX_demand_BG.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.0003699530237966341</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>8.523828527319799e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001067840437418168</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,30 +527,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>0.0003699530237966341</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>8.523828527319799e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001067840437418168</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2030</v>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>0.004519281559255572</v>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -556,16 +558,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2030</v>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
-        <v>0.004519281559255572</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -577,7 +577,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -585,18 +585,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.0008486235072633815</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0001062922585825995</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1.982396934295515e-05</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -604,24 +610,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.0008486235072633815</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0001062922585825995</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>1.982396934295515e-05</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,17 +630,29 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.006658482628641779</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.393298861638786e-05</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.235050019166982e-05</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0037880844391939</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.263140517044296e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0027623925437353</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -648,30 +660,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.006658482628641779</v>
-      </c>
-      <c r="G9" t="n">
-        <v>3.393298861638786e-05</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.235050019166982e-05</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.0037880844391939</v>
-      </c>
-      <c r="J9" t="n">
-        <v>9.263140517044296e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0027623925437353</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.001767050420365749</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -680,7 +682,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.001767050420365749</v>
+        <v>0.0006762847930484331</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -692,28 +694,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.004519281559255572</v>
+      </c>
       <c r="E11" t="n">
-        <v>0.0006762847930484331</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.003291958720677564</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.007134727911021013</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.393298861638786e-05</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.235135257452255e-05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003914692452278672</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.263140517044296e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0027623925437353</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -722,17 +738,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.001781868501600853</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>7.135385940852036e-08</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0001561632335787969</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -741,30 +763,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.001781868501600853</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>7.135385940852036e-08</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0001561632335787969</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0.004453516139235275</v>
+      </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -776,28 +794,30 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>2040</v>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
-        <v>0.004453516139235275</v>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>6.452770915871963e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>4.887106473705467e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -805,14 +825,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.003402768728558265</v>
+      </c>
       <c r="F16" t="n">
-        <v>6.452770915871963e-10</v>
+        <v>0.0001325854197537344</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>4.887106473705467e-11</v>
+        <v>3.364620598855328e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -820,7 +842,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -828,24 +850,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.003402768728558265</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.0001325854197537344</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>3.364620598855328e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -854,17 +870,29 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.002868182631643872</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.531636953371903e-05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.470209721434018e-05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0025082516179833</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0001125321233566</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0032262798875323</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -872,30 +900,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.002868182631643872</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5.531636953371903e-05</v>
-      </c>
-      <c r="H19" t="n">
-        <v>3.470209721434018e-05</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.0025082516179833</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0001125321233566</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.0032262798875323</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.001783854964824158</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -904,7 +922,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.001783854964824158</v>
+        <v>0.002635382826278307</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -916,28 +934,42 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>0.004453516139235275</v>
+      </c>
       <c r="E21" t="n">
-        <v>0.002635382826278307</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.007822006519660729</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.004782637198275552</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.531636953371903e-05</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.47734510737487e-05</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.002698061106421715</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0001125321233566</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0032262798875323</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -946,17 +978,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0024695872882565</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.209390442586334e-07</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0002491497128281486</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -965,30 +1003,26 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0024695872882565</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.209390442586334e-07</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0002491497128281486</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>2050</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>0.004391844017420131</v>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1000,28 +1034,30 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>2050</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="n">
-        <v>0.004391844017420131</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>5.419311215647068e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>1.264475918242466e-09</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1029,14 +1065,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.008523752276313709</v>
+      </c>
       <c r="F26" t="n">
-        <v>5.419311215647068e-09</v>
+        <v>2.188064744053967e-05</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>1.264475918242466e-09</v>
+        <v>9.630866481644564e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1044,7 +1082,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1052,24 +1090,30 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.008523752276313709</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2.188064744053967e-05</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+        <v>2.054838133199776e-11</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.037002907176165e-12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.240401755162968e-13</v>
+      </c>
       <c r="I27" t="n">
-        <v>9.630866481644564e-06</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>4.150217993694974e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.707128990841736e-13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.936289411462306e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1079,28 +1123,28 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2.054838133199776e-11</v>
+        <v>0.0003081190100342624</v>
       </c>
       <c r="G28" t="n">
-        <v>2.037002907176165e-12</v>
+        <v>9.88406403828583e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>7.240401755162968e-13</v>
+        <v>5.482783088890316e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>4.150217993694974e-11</v>
+        <v>0.0006471367414306001</v>
       </c>
       <c r="J28" t="n">
-        <v>7.707128990841736e-13</v>
+        <v>0.0001447341306725</v>
       </c>
       <c r="K28" t="n">
-        <v>2.936289411462306e-10</v>
+        <v>0.0045478180094235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1108,30 +1152,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>0.0003081190100342624</v>
-      </c>
-      <c r="G29" t="n">
-        <v>9.88406403828583e-05</v>
-      </c>
-      <c r="H29" t="n">
-        <v>5.482783088890316e-05</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0006471367414306001</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.0001447341306725</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.0045478180094235</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.001797963928962914</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1140,7 +1174,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.001797963928962914</v>
+        <v>0.006428867182493626</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1152,23 +1186,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>0.004391844017420131</v>
+      </c>
       <c r="E31" t="n">
-        <v>0.006428867182493626</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.01675058338777025</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.002799592385590899</v>
+      </c>
+      <c r="G31" t="n">
+        <v>9.88406424198612e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>5.494877065720197e-05</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0009059186267184914</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.0001447341314432129</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.004547818303052441</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_BG.xlsx
+++ b/Outputs/PtX_demand_BG.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -611,17 +611,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.001424263216952223</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>8.025862017923084e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -630,29 +634,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.006658482628641779</v>
-      </c>
-      <c r="G8" t="n">
-        <v>3.393298861638786e-05</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2.235050019166982e-05</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.0037880844391939</v>
-      </c>
-      <c r="J8" t="n">
-        <v>9.263140517044296e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0027623925437353</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -660,20 +652,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.001767050420365749</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.006658482628641779</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.393298861638786e-05</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00220440146393377</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0037880844391939</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.263140517044296e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0027623925437353</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -681,120 +683,132 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0006762847930484331</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.06656422813777201</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0002389800881419</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0201243571619895</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0239554169299955</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0005606980903764</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.0255901401576523</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>2030</v>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>0.004519281559255572</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.003291958720677564</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.007134727911021013</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.393298861638786e-05</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.235135257452255e-05</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.003914692452278672</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.263140517044296e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.0027623925437353</v>
-      </c>
+        <v>0.001767050420365749</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.001781868501600853</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0006762847930484331</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>7.135385940852036e-08</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0001561632335787969</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0.004519281559255572</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.003291958720677564</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.07512321926574525</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0002729130767582878</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.02232875947830612</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0279503680024534</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0006533294955468429</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0283525327013876</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>2040</v>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>0.004453516139235275</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.001781868501600853</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>7.135385940852036e-08</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0001561632335787969</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -803,46 +817,38 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>6.452770915871963e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>4.887106473705467e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>2040</v>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.003402768728558265</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0001325854197537344</v>
-      </c>
+      <c r="D16" t="n">
+        <v>0.004453516139235275</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>3.364620598855328e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -851,17 +857,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>6.452770915871963e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>4.887106473705467e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -869,30 +879,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.003402768728558265</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.002868182631643872</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5.531636953371903e-05</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.470209721434018e-05</v>
-      </c>
+        <v>0.0001325854197537344</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0025082516179833</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.0001125321233566</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.0032262798875323</v>
-      </c>
+        <v>3.364620598855328e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -900,20 +904,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.001783854964824158</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0007658853692322342</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>8.525818792382284e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -921,9 +927,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.002635382826278307</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -934,30 +938,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>2040</v>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="n">
-        <v>0.004453516139235275</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.007822006519660729</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.004782637198275552</v>
+        <v>0.002868182631643872</v>
       </c>
       <c r="G21" t="n">
         <v>5.531636953371903e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.47734510737487e-05</v>
+        <v>0.00269103731096634</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002698061106421715</v>
+        <v>0.0025082516179833</v>
       </c>
       <c r="J21" t="n">
         <v>0.0001125321233566</v>
@@ -969,40 +969,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0024695872882565</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.0182058077380439</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0002569168813649</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.209390442586334e-07</v>
+        <v>0.0189768366785348</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0002491497128281486</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0107355378940861</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0004975693923245</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0244778202293566</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.001783854964824158</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1013,17 +1021,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="n">
-        <v>0.004391844017420131</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.002635382826278307</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1034,30 +1042,42 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>0.004453516139235275</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.007822006519660729</v>
+      </c>
       <c r="F25" t="n">
-        <v>5.419311215647068e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.02375433030555169</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.000312233250898619</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.02166794534336055</v>
+      </c>
       <c r="I25" t="n">
-        <v>1.264475918242466e-09</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.01351885718843164</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0006101015156811001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0277041001168889</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1065,16 +1085,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.008523752276313709</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>2.188064744053967e-05</v>
+        <v>0.0024695872882565</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.209390442586334e-07</v>
+      </c>
       <c r="I26" t="n">
-        <v>9.630866481644564e-06</v>
+        <v>0.0002491497128281486</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1082,7 +1102,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1091,60 +1111,38 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>2.054838133199776e-11</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2.037002907176165e-12</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7.240401755162968e-13</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.150217993694974e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>7.707128990841736e-13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.936289411462306e-10</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>2050</v>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="n">
+        <v>0.004391844017420131</v>
+      </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>0.0003081190100342624</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9.88406403828583e-05</v>
-      </c>
-      <c r="H28" t="n">
-        <v>5.482783088890316e-05</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.0006471367414306001</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.0001447341306725</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.0045478180094235</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1152,20 +1150,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.001797963928962914</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>5.419311215647068e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>1.264475918242466e-09</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1174,48 +1174,210 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.006428867182493626</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.008523752276313709</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.188064744053967e-05</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>9.630866481644564e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>2050</v>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="n">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>4.448656720562416e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>3.164362716767037e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>2.054838133199776e-11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.037002907176165e-12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.030654180407414e-10</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.150217993694974e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>7.707128990841736e-13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.936289411462306e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.0003081190100342624</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9.88406403828583e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.003534054646170003</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0006471367414306001</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.0001447341306725</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.0045478180094235</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0012861803472131</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0002317281464704</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0171768198088114</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0019106303723634</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0004282833010402</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0224298349252638</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.001797963928962914</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.006428867182493626</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="n">
         <v>0.004391844017420131</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E37" t="n">
         <v>0.01675058338777025</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.002799592385590899</v>
-      </c>
-      <c r="G31" t="n">
-        <v>9.88406424198612e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>5.494877065720197e-05</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0009059186267184914</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0001447341314432129</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.004547818303052441</v>
+      <c r="F37" t="n">
+        <v>0.004130259300009623</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0003305687888902612</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.02071099549709108</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.002848192626249562</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.0005730174324834129</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.02697765322831624</v>
       </c>
     </row>
   </sheetData>
